--- a/consensus/risk-modeling/data/participation_run_results.xlsx
+++ b/consensus/risk-modeling/data/participation_run_results.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:EP8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,42 +497,189 @@
       <c r="E1" s="1" t="n"/>
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Committee Size = 200</t>
-        </is>
-      </c>
+      <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="n"/>
       <c r="K1" s="1" t="n"/>
       <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Committee Size = 300</t>
-        </is>
-      </c>
+      <c r="M1" s="1" t="n"/>
       <c r="N1" s="1" t="n"/>
-      <c r="O1" s="1" t="n"/>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Committee Size = 200</t>
+        </is>
+      </c>
       <c r="P1" s="1" t="n"/>
       <c r="Q1" s="1" t="n"/>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Committee Size = 400</t>
-        </is>
-      </c>
+      <c r="R1" s="1" t="n"/>
       <c r="S1" s="1" t="n"/>
       <c r="T1" s="1" t="n"/>
       <c r="U1" s="1" t="n"/>
       <c r="V1" s="1" t="n"/>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Committee Size = 500</t>
-        </is>
-      </c>
+      <c r="W1" s="1" t="n"/>
       <c r="X1" s="1" t="n"/>
       <c r="Y1" s="1" t="n"/>
       <c r="Z1" s="1" t="n"/>
-      <c r="AA1" s="1" t="n"/>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Committee Size = 300</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="n"/>
+      <c r="AC1" s="1" t="n"/>
+      <c r="AD1" s="1" t="n"/>
+      <c r="AE1" s="1" t="n"/>
+      <c r="AF1" s="1" t="n"/>
+      <c r="AG1" s="1" t="n"/>
+      <c r="AH1" s="1" t="n"/>
+      <c r="AI1" s="1" t="n"/>
+      <c r="AJ1" s="1" t="n"/>
+      <c r="AK1" s="1" t="n"/>
+      <c r="AL1" s="1" t="n"/>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Committee Size = 400</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="n"/>
+      <c r="AO1" s="1" t="n"/>
+      <c r="AP1" s="1" t="n"/>
+      <c r="AQ1" s="1" t="n"/>
+      <c r="AR1" s="1" t="n"/>
+      <c r="AS1" s="1" t="n"/>
+      <c r="AT1" s="1" t="n"/>
+      <c r="AU1" s="1" t="n"/>
+      <c r="AV1" s="1" t="n"/>
+      <c r="AW1" s="1" t="n"/>
+      <c r="AX1" s="1" t="n"/>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Committee Size = 500</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="n"/>
+      <c r="BA1" s="1" t="n"/>
+      <c r="BB1" s="1" t="n"/>
+      <c r="BC1" s="1" t="n"/>
+      <c r="BD1" s="1" t="n"/>
+      <c r="BE1" s="1" t="n"/>
+      <c r="BF1" s="1" t="n"/>
+      <c r="BG1" s="1" t="n"/>
+      <c r="BH1" s="1" t="n"/>
+      <c r="BI1" s="1" t="n"/>
+      <c r="BJ1" s="1" t="n"/>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Committee Size = 600</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="n"/>
+      <c r="BM1" s="1" t="n"/>
+      <c r="BN1" s="1" t="n"/>
+      <c r="BO1" s="1" t="n"/>
+      <c r="BP1" s="1" t="n"/>
+      <c r="BQ1" s="1" t="n"/>
+      <c r="BR1" s="1" t="n"/>
+      <c r="BS1" s="1" t="n"/>
+      <c r="BT1" s="1" t="n"/>
+      <c r="BU1" s="1" t="n"/>
+      <c r="BV1" s="1" t="n"/>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>Committee Size = 700</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="n"/>
+      <c r="BY1" s="1" t="n"/>
+      <c r="BZ1" s="1" t="n"/>
+      <c r="CA1" s="1" t="n"/>
+      <c r="CB1" s="1" t="n"/>
+      <c r="CC1" s="1" t="n"/>
+      <c r="CD1" s="1" t="n"/>
+      <c r="CE1" s="1" t="n"/>
+      <c r="CF1" s="1" t="n"/>
+      <c r="CG1" s="1" t="n"/>
+      <c r="CH1" s="1" t="n"/>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>Committee Size = 800</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="n"/>
+      <c r="CK1" s="1" t="n"/>
+      <c r="CL1" s="1" t="n"/>
+      <c r="CM1" s="1" t="n"/>
+      <c r="CN1" s="1" t="n"/>
+      <c r="CO1" s="1" t="n"/>
+      <c r="CP1" s="1" t="n"/>
+      <c r="CQ1" s="1" t="n"/>
+      <c r="CR1" s="1" t="n"/>
+      <c r="CS1" s="1" t="n"/>
+      <c r="CT1" s="1" t="n"/>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>Committee Size = 900</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="n"/>
+      <c r="CW1" s="1" t="n"/>
+      <c r="CX1" s="1" t="n"/>
+      <c r="CY1" s="1" t="n"/>
+      <c r="CZ1" s="1" t="n"/>
+      <c r="DA1" s="1" t="n"/>
+      <c r="DB1" s="1" t="n"/>
+      <c r="DC1" s="1" t="n"/>
+      <c r="DD1" s="1" t="n"/>
+      <c r="DE1" s="1" t="n"/>
+      <c r="DF1" s="1" t="n"/>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>Committee Size = 1000</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="n"/>
+      <c r="DI1" s="1" t="n"/>
+      <c r="DJ1" s="1" t="n"/>
+      <c r="DK1" s="1" t="n"/>
+      <c r="DL1" s="1" t="n"/>
+      <c r="DM1" s="1" t="n"/>
+      <c r="DN1" s="1" t="n"/>
+      <c r="DO1" s="1" t="n"/>
+      <c r="DP1" s="1" t="n"/>
+      <c r="DQ1" s="1" t="n"/>
+      <c r="DR1" s="1" t="n"/>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>Committee Size = 1100</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="n"/>
+      <c r="DU1" s="1" t="n"/>
+      <c r="DV1" s="1" t="n"/>
+      <c r="DW1" s="1" t="n"/>
+      <c r="DX1" s="1" t="n"/>
+      <c r="DY1" s="1" t="n"/>
+      <c r="DZ1" s="1" t="n"/>
+      <c r="EA1" s="1" t="n"/>
+      <c r="EB1" s="1" t="n"/>
+      <c r="EC1" s="1" t="n"/>
+      <c r="ED1" s="1" t="n"/>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>Committee Size = 1200</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="n"/>
+      <c r="EG1" s="1" t="n"/>
+      <c r="EH1" s="1" t="n"/>
+      <c r="EI1" s="1" t="n"/>
+      <c r="EJ1" s="1" t="n"/>
+      <c r="EK1" s="1" t="n"/>
+      <c r="EL1" s="1" t="n"/>
+      <c r="EM1" s="1" t="n"/>
+      <c r="EN1" s="1" t="n"/>
+      <c r="EO1" s="1" t="n"/>
+      <c r="EP1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
@@ -567,102 +714,697 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
+          <t>Group Size = 600</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 700</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 800</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 900</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1000</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1100</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1200</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
           <t>Group Size = 100</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="P2" s="1" t="inlineStr">
         <is>
           <t>Group Size = 200</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="Q2" s="1" t="inlineStr">
         <is>
           <t>Group Size = 300</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="R2" s="1" t="inlineStr">
         <is>
           <t>Group Size = 400</t>
         </is>
       </c>
-      <c r="L2" s="1" t="inlineStr">
+      <c r="S2" s="1" t="inlineStr">
         <is>
           <t>Group Size = 500</t>
         </is>
       </c>
-      <c r="M2" s="1" t="inlineStr">
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 600</t>
+        </is>
+      </c>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 700</t>
+        </is>
+      </c>
+      <c r="V2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 800</t>
+        </is>
+      </c>
+      <c r="W2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 900</t>
+        </is>
+      </c>
+      <c r="X2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1000</t>
+        </is>
+      </c>
+      <c r="Y2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1100</t>
+        </is>
+      </c>
+      <c r="Z2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1200</t>
+        </is>
+      </c>
+      <c r="AA2" s="1" t="inlineStr">
         <is>
           <t>Group Size = 100</t>
         </is>
       </c>
-      <c r="N2" s="1" t="inlineStr">
+      <c r="AB2" s="1" t="inlineStr">
         <is>
           <t>Group Size = 200</t>
         </is>
       </c>
-      <c r="O2" s="1" t="inlineStr">
+      <c r="AC2" s="1" t="inlineStr">
         <is>
           <t>Group Size = 300</t>
         </is>
       </c>
-      <c r="P2" s="1" t="inlineStr">
+      <c r="AD2" s="1" t="inlineStr">
         <is>
           <t>Group Size = 400</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
+      <c r="AE2" s="1" t="inlineStr">
         <is>
           <t>Group Size = 500</t>
         </is>
       </c>
-      <c r="R2" s="1" t="inlineStr">
+      <c r="AF2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 600</t>
+        </is>
+      </c>
+      <c r="AG2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 700</t>
+        </is>
+      </c>
+      <c r="AH2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 800</t>
+        </is>
+      </c>
+      <c r="AI2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 900</t>
+        </is>
+      </c>
+      <c r="AJ2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1000</t>
+        </is>
+      </c>
+      <c r="AK2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1100</t>
+        </is>
+      </c>
+      <c r="AL2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1200</t>
+        </is>
+      </c>
+      <c r="AM2" s="1" t="inlineStr">
         <is>
           <t>Group Size = 100</t>
         </is>
       </c>
-      <c r="S2" s="1" t="inlineStr">
+      <c r="AN2" s="1" t="inlineStr">
         <is>
           <t>Group Size = 200</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
+      <c r="AO2" s="1" t="inlineStr">
         <is>
           <t>Group Size = 300</t>
         </is>
       </c>
-      <c r="U2" s="1" t="inlineStr">
+      <c r="AP2" s="1" t="inlineStr">
         <is>
           <t>Group Size = 400</t>
         </is>
       </c>
-      <c r="V2" s="1" t="inlineStr">
+      <c r="AQ2" s="1" t="inlineStr">
         <is>
           <t>Group Size = 500</t>
         </is>
       </c>
-      <c r="W2" s="1" t="inlineStr">
+      <c r="AR2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 600</t>
+        </is>
+      </c>
+      <c r="AS2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 700</t>
+        </is>
+      </c>
+      <c r="AT2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 800</t>
+        </is>
+      </c>
+      <c r="AU2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 900</t>
+        </is>
+      </c>
+      <c r="AV2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1000</t>
+        </is>
+      </c>
+      <c r="AW2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1100</t>
+        </is>
+      </c>
+      <c r="AX2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1200</t>
+        </is>
+      </c>
+      <c r="AY2" s="1" t="inlineStr">
         <is>
           <t>Group Size = 100</t>
         </is>
       </c>
-      <c r="X2" s="1" t="inlineStr">
+      <c r="AZ2" s="1" t="inlineStr">
         <is>
           <t>Group Size = 200</t>
         </is>
       </c>
-      <c r="Y2" s="1" t="inlineStr">
+      <c r="BA2" s="1" t="inlineStr">
         <is>
           <t>Group Size = 300</t>
         </is>
       </c>
-      <c r="Z2" s="1" t="inlineStr">
+      <c r="BB2" s="1" t="inlineStr">
         <is>
           <t>Group Size = 400</t>
         </is>
       </c>
-      <c r="AA2" s="1" t="inlineStr">
+      <c r="BC2" s="1" t="inlineStr">
         <is>
           <t>Group Size = 500</t>
+        </is>
+      </c>
+      <c r="BD2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 600</t>
+        </is>
+      </c>
+      <c r="BE2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 700</t>
+        </is>
+      </c>
+      <c r="BF2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 800</t>
+        </is>
+      </c>
+      <c r="BG2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 900</t>
+        </is>
+      </c>
+      <c r="BH2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1000</t>
+        </is>
+      </c>
+      <c r="BI2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1100</t>
+        </is>
+      </c>
+      <c r="BJ2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1200</t>
+        </is>
+      </c>
+      <c r="BK2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 100</t>
+        </is>
+      </c>
+      <c r="BL2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 200</t>
+        </is>
+      </c>
+      <c r="BM2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 300</t>
+        </is>
+      </c>
+      <c r="BN2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 400</t>
+        </is>
+      </c>
+      <c r="BO2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 500</t>
+        </is>
+      </c>
+      <c r="BP2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 600</t>
+        </is>
+      </c>
+      <c r="BQ2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 700</t>
+        </is>
+      </c>
+      <c r="BR2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 800</t>
+        </is>
+      </c>
+      <c r="BS2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 900</t>
+        </is>
+      </c>
+      <c r="BT2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1000</t>
+        </is>
+      </c>
+      <c r="BU2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1100</t>
+        </is>
+      </c>
+      <c r="BV2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1200</t>
+        </is>
+      </c>
+      <c r="BW2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 100</t>
+        </is>
+      </c>
+      <c r="BX2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 200</t>
+        </is>
+      </c>
+      <c r="BY2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 300</t>
+        </is>
+      </c>
+      <c r="BZ2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 400</t>
+        </is>
+      </c>
+      <c r="CA2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 500</t>
+        </is>
+      </c>
+      <c r="CB2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 600</t>
+        </is>
+      </c>
+      <c r="CC2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 700</t>
+        </is>
+      </c>
+      <c r="CD2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 800</t>
+        </is>
+      </c>
+      <c r="CE2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 900</t>
+        </is>
+      </c>
+      <c r="CF2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1000</t>
+        </is>
+      </c>
+      <c r="CG2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1100</t>
+        </is>
+      </c>
+      <c r="CH2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1200</t>
+        </is>
+      </c>
+      <c r="CI2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 100</t>
+        </is>
+      </c>
+      <c r="CJ2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 200</t>
+        </is>
+      </c>
+      <c r="CK2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 300</t>
+        </is>
+      </c>
+      <c r="CL2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 400</t>
+        </is>
+      </c>
+      <c r="CM2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 500</t>
+        </is>
+      </c>
+      <c r="CN2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 600</t>
+        </is>
+      </c>
+      <c r="CO2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 700</t>
+        </is>
+      </c>
+      <c r="CP2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 800</t>
+        </is>
+      </c>
+      <c r="CQ2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 900</t>
+        </is>
+      </c>
+      <c r="CR2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1000</t>
+        </is>
+      </c>
+      <c r="CS2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1100</t>
+        </is>
+      </c>
+      <c r="CT2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1200</t>
+        </is>
+      </c>
+      <c r="CU2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 100</t>
+        </is>
+      </c>
+      <c r="CV2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 200</t>
+        </is>
+      </c>
+      <c r="CW2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 300</t>
+        </is>
+      </c>
+      <c r="CX2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 400</t>
+        </is>
+      </c>
+      <c r="CY2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 500</t>
+        </is>
+      </c>
+      <c r="CZ2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 600</t>
+        </is>
+      </c>
+      <c r="DA2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 700</t>
+        </is>
+      </c>
+      <c r="DB2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 800</t>
+        </is>
+      </c>
+      <c r="DC2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 900</t>
+        </is>
+      </c>
+      <c r="DD2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1000</t>
+        </is>
+      </c>
+      <c r="DE2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1100</t>
+        </is>
+      </c>
+      <c r="DF2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1200</t>
+        </is>
+      </c>
+      <c r="DG2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 100</t>
+        </is>
+      </c>
+      <c r="DH2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 200</t>
+        </is>
+      </c>
+      <c r="DI2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 300</t>
+        </is>
+      </c>
+      <c r="DJ2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 400</t>
+        </is>
+      </c>
+      <c r="DK2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 500</t>
+        </is>
+      </c>
+      <c r="DL2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 600</t>
+        </is>
+      </c>
+      <c r="DM2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 700</t>
+        </is>
+      </c>
+      <c r="DN2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 800</t>
+        </is>
+      </c>
+      <c r="DO2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 900</t>
+        </is>
+      </c>
+      <c r="DP2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1000</t>
+        </is>
+      </c>
+      <c r="DQ2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1100</t>
+        </is>
+      </c>
+      <c r="DR2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1200</t>
+        </is>
+      </c>
+      <c r="DS2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 100</t>
+        </is>
+      </c>
+      <c r="DT2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 200</t>
+        </is>
+      </c>
+      <c r="DU2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 300</t>
+        </is>
+      </c>
+      <c r="DV2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 400</t>
+        </is>
+      </c>
+      <c r="DW2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 500</t>
+        </is>
+      </c>
+      <c r="DX2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 600</t>
+        </is>
+      </c>
+      <c r="DY2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 700</t>
+        </is>
+      </c>
+      <c r="DZ2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 800</t>
+        </is>
+      </c>
+      <c r="EA2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 900</t>
+        </is>
+      </c>
+      <c r="EB2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1000</t>
+        </is>
+      </c>
+      <c r="EC2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1100</t>
+        </is>
+      </c>
+      <c r="ED2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1200</t>
+        </is>
+      </c>
+      <c r="EE2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 100</t>
+        </is>
+      </c>
+      <c r="EF2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 200</t>
+        </is>
+      </c>
+      <c r="EG2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 300</t>
+        </is>
+      </c>
+      <c r="EH2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 400</t>
+        </is>
+      </c>
+      <c r="EI2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 500</t>
+        </is>
+      </c>
+      <c r="EJ2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 600</t>
+        </is>
+      </c>
+      <c r="EK2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 700</t>
+        </is>
+      </c>
+      <c r="EL2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 800</t>
+        </is>
+      </c>
+      <c r="EM2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 900</t>
+        </is>
+      </c>
+      <c r="EN2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1000</t>
+        </is>
+      </c>
+      <c r="EO2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1100</t>
+        </is>
+      </c>
+      <c r="EP2" s="1" t="inlineStr">
+        <is>
+          <t>Group Size = 1200</t>
         </is>
       </c>
     </row>
@@ -678,79 +1420,436 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25.46666666666667</v>
+        <v>25.91</v>
       </c>
       <c r="D4" t="n">
-        <v>40.6</v>
+        <v>40.26</v>
       </c>
       <c r="E4" t="n">
-        <v>50.5</v>
+        <v>50.18</v>
       </c>
       <c r="F4" t="n">
-        <v>57.2</v>
+        <v>57.87</v>
       </c>
       <c r="G4" t="n">
-        <v>63.73333333333333</v>
+        <v>62.37</v>
       </c>
       <c r="H4" t="n">
-        <v>31.36666666666667</v>
+        <v>67.58</v>
       </c>
       <c r="I4" t="n">
-        <v>50.9</v>
+        <v>70.66</v>
       </c>
       <c r="J4" t="n">
-        <v>66.96666666666667</v>
+        <v>73.86</v>
       </c>
       <c r="K4" t="n">
-        <v>79.13333333333334</v>
+        <v>75.84</v>
       </c>
       <c r="L4" t="n">
-        <v>91.13333333333334</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>33.2</v>
+        <v>79.56999999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>57.03333333333333</v>
+        <v>81.04000000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>75.5</v>
+        <v>31.33</v>
       </c>
       <c r="P4" t="n">
-        <v>90.66666666666667</v>
+        <v>50.87</v>
       </c>
       <c r="Q4" t="n">
-        <v>108.1</v>
+        <v>65.69</v>
       </c>
       <c r="R4" t="n">
-        <v>37.2</v>
+        <v>80.33</v>
       </c>
       <c r="S4" t="n">
-        <v>61.56666666666667</v>
+        <v>89.59</v>
       </c>
       <c r="T4" t="n">
-        <v>81.16666666666667</v>
+        <v>100.55</v>
       </c>
       <c r="U4" t="n">
-        <v>99.76666666666667</v>
+        <v>106.71</v>
       </c>
       <c r="V4" t="n">
-        <v>118.4666666666667</v>
+        <v>115.05</v>
       </c>
       <c r="W4" t="n">
-        <v>37.8</v>
+        <v>121.1</v>
       </c>
       <c r="X4" t="n">
-        <v>62.76666666666667</v>
+        <v>125.98</v>
       </c>
       <c r="Y4" t="n">
-        <v>86.46666666666667</v>
+        <v>129.76</v>
       </c>
       <c r="Z4" t="n">
-        <v>108.3666666666667</v>
+        <v>135.35</v>
       </c>
       <c r="AA4" t="n">
-        <v>125.9666666666667</v>
+        <v>33.93</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>56.38</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>75.87</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>91.48999999999999</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>106.13</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>119.92</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>129.79</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>139.97</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>147.99</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>157.72</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>163.61</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>170.79</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>37.07</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>60.68</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>81.2</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>100.18</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>117.65</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>132.17</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>145.59</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>159.27</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>169.04</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>180.31</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>190</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>199.51</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>37.26</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>63.85</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>85.89</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>125.55</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>141.7</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>156.76</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>173.08</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>184.31</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>198.01</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>211.25</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>221.66</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>39.68</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>66.33</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>89.39</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>113.13</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>132.37</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>151.19</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>168.19</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>182.7</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>196.52</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>211.05</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>226.25</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>237.43</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>40.63</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>67.78</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>115.75</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>155.38</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>175.83</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>191.99</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>208.59</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>224.56</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>238.12</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>251.06</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>41.01</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>72.05</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>96.56999999999999</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>119.53</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>143.97</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>162.08</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>182.7</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>200.06</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>218.29</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>232.72</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>247.37</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>263.46</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>72.67</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>125.07</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>146.77</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>166.9</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>187.78</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>205.79</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>225.05</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>241.13</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>258.44</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>273.74</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>42.75</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>73.23999999999999</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>101.75</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>149.34</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>172.94</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>192.85</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>213.99</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>232.13</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>249.87</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>267.48</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>282.6</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="DU4" t="n">
+        <v>102.94</v>
+      </c>
+      <c r="DV4" t="n">
+        <v>129.64</v>
+      </c>
+      <c r="DW4" t="n">
+        <v>152.84</v>
+      </c>
+      <c r="DX4" t="n">
+        <v>177.27</v>
+      </c>
+      <c r="DY4" t="n">
+        <v>198.76</v>
+      </c>
+      <c r="DZ4" t="n">
+        <v>217.75</v>
+      </c>
+      <c r="EA4" t="n">
+        <v>238.19</v>
+      </c>
+      <c r="EB4" t="n">
+        <v>256.33</v>
+      </c>
+      <c r="EC4" t="n">
+        <v>276.11</v>
+      </c>
+      <c r="ED4" t="n">
+        <v>292.6</v>
+      </c>
+      <c r="EE4" t="n">
+        <v>43.47</v>
+      </c>
+      <c r="EF4" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="EG4" t="n">
+        <v>106.02</v>
+      </c>
+      <c r="EH4" t="n">
+        <v>131.7</v>
+      </c>
+      <c r="EI4" t="n">
+        <v>156.54</v>
+      </c>
+      <c r="EJ4" t="n">
+        <v>179.34</v>
+      </c>
+      <c r="EK4" t="n">
+        <v>201.49</v>
+      </c>
+      <c r="EL4" t="n">
+        <v>223.17</v>
+      </c>
+      <c r="EM4" t="n">
+        <v>244.46</v>
+      </c>
+      <c r="EN4" t="n">
+        <v>261.56</v>
+      </c>
+      <c r="EO4" t="n">
+        <v>279.83</v>
+      </c>
+      <c r="EP4" t="n">
+        <v>298.7</v>
       </c>
     </row>
     <row r="5">
@@ -761,79 +1860,436 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.692376067507823</v>
+        <v>2.025314790347417</v>
       </c>
       <c r="D5" t="n">
-        <v>2.33238075793812</v>
+        <v>2.551940438176408</v>
       </c>
       <c r="E5" t="n">
-        <v>2.459674775249769</v>
+        <v>3.191801998871484</v>
       </c>
       <c r="F5" t="n">
-        <v>3.673327283721576</v>
+        <v>3.306523854442911</v>
       </c>
       <c r="G5" t="n">
-        <v>3.60493488922554</v>
+        <v>3.110160767548841</v>
       </c>
       <c r="H5" t="n">
-        <v>2.316366887078892</v>
+        <v>3.672002178648591</v>
       </c>
       <c r="I5" t="n">
-        <v>2.785079292707241</v>
+        <v>3.663932313785286</v>
       </c>
       <c r="J5" t="n">
-        <v>3.250470051478026</v>
+        <v>3.487176508294354</v>
       </c>
       <c r="K5" t="n">
-        <v>4.514667454223203</v>
+        <v>3.801894264705425</v>
       </c>
       <c r="L5" t="n">
-        <v>4.709800656314683</v>
+        <v>3.235351603767356</v>
       </c>
       <c r="M5" t="n">
-        <v>2.181742422927143</v>
+        <v>3.256547251307741</v>
       </c>
       <c r="N5" t="n">
-        <v>3.250470051478026</v>
+        <v>3.43196736581221</v>
       </c>
       <c r="O5" t="n">
-        <v>3.442382895611701</v>
+        <v>2.284972647538696</v>
       </c>
       <c r="P5" t="n">
-        <v>3.486481830664768</v>
+        <v>2.663287442241261</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.127377497317708</v>
+        <v>3.62958675333708</v>
       </c>
       <c r="R5" t="n">
-        <v>1.833030277982336</v>
+        <v>3.507292402979826</v>
       </c>
       <c r="S5" t="n">
-        <v>3.58406969178273</v>
+        <v>3.904087601476176</v>
       </c>
       <c r="T5" t="n">
-        <v>3.387066905483596</v>
+        <v>3.763973963778177</v>
       </c>
       <c r="U5" t="n">
-        <v>4.038839217178894</v>
+        <v>4.669678789809852</v>
       </c>
       <c r="V5" t="n">
-        <v>4.688520259337931</v>
+        <v>5.0386009963084</v>
       </c>
       <c r="W5" t="n">
-        <v>2.181742422927143</v>
+        <v>5.21632054229799</v>
       </c>
       <c r="X5" t="n">
-        <v>3.018645759644914</v>
+        <v>5.567728441653741</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.629744389775469</v>
+        <v>4.986221013954355</v>
       </c>
       <c r="Z5" t="n">
-        <v>4.370227555733099</v>
+        <v>5.479735395071554</v>
       </c>
       <c r="AA5" t="n">
-        <v>5.552677032046994</v>
+        <v>2.255016629650433</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>3.071742176680849</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>3.833157967003186</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3.81443311646698</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5.137421532247475</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>4.573138965743333</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>4.901622180462301</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6.538279590228609</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>5.264019376864034</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>6.09110827354103</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>5.112523838575229</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>5.738109444756173</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>2.108340579697692</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.221428254672142</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>3.94715087119811</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>3.816752546340934</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>4.292726406376255</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>4.953897455539426</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>4.870513319969467</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>5.011696319610756</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>5.656712826368332</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>6.231685165346529</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>6.180614856144977</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>6.119632341897672</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>2.2388389848312</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>2.772634126602354</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>3.885601626518087</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>3.894868418830089</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>4.434805519974918</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>4.633573135281238</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>4.749989473672548</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>5.735294238310708</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>6.325654116374053</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>6.08686290300677</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>6.405271266699015</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>6.702566672551643</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>2.158147353634594</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>3.059591475998062</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>3.649369808610796</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>4.158497324755663</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>4.661877304262735</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>5.53298292063151</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>5.117997655333578</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>4.877499359302879</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>6.208832418418136</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>6.375539192884002</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>6.928744475011328</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>5.985407254314446</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>2.17096752624262</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>2.968433930543175</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>3.473096601017599</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>4.439313009914935</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>4.565084884205332</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>4.863702293520853</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>5.475499977171035</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>5.616929766340327</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>5.772512451264181</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>6.82542306381077</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>5.111320768646788</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>7.035367794223697</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>2.586484100086448</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>3.421622422185125</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>3.65583095889293</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>4.434985907531162</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>4.893781768734687</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>4.934936676392109</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>5.893216439263028</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>5.277916255493261</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>5.872469667865471</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>7.066937101743584</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>6.75226628621828</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>6.287161521704369</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>2.280438554313621</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>3.039917762045546</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>3.482814953453601</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>4.64166995810775</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>4.85356569956563</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>4.960846701924985</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>6.250727957606219</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>5.632574899635157</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>6.198991853519408</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>6.305005947657781</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>7.004741251466752</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>6.918988365360936</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>2.099404677521702</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>2.976978333814339</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>3.216753021293366</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>4.241462012089699</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>4.91369514723899</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>5.199653834631686</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>5.694514904713131</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>6.850540124690898</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>5.066862934795059</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>5.675658552097721</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>6.847598119048754</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>6.913754406977441</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>1.86815416922694</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>3.047950130825634</v>
+      </c>
+      <c r="DU5" t="n">
+        <v>3.52936254867646</v>
+      </c>
+      <c r="DV5" t="n">
+        <v>4.053442980973089</v>
+      </c>
+      <c r="DW5" t="n">
+        <v>4.717456942039853</v>
+      </c>
+      <c r="DX5" t="n">
+        <v>5.086953901894532</v>
+      </c>
+      <c r="DY5" t="n">
+        <v>5.870468465122694</v>
+      </c>
+      <c r="DZ5" t="n">
+        <v>5.653980898446687</v>
+      </c>
+      <c r="EA5" t="n">
+        <v>6.354045955137561</v>
+      </c>
+      <c r="EB5" t="n">
+        <v>5.90432892037698</v>
+      </c>
+      <c r="EC5" t="n">
+        <v>7.744540012163408</v>
+      </c>
+      <c r="ED5" t="n">
+        <v>6.73349834781297</v>
+      </c>
+      <c r="EE5" t="n">
+        <v>2.090239220759193</v>
+      </c>
+      <c r="EF5" t="n">
+        <v>3.036445290137796</v>
+      </c>
+      <c r="EG5" t="n">
+        <v>4.140000000000001</v>
+      </c>
+      <c r="EH5" t="n">
+        <v>4.670117771534247</v>
+      </c>
+      <c r="EI5" t="n">
+        <v>5.485289418070846</v>
+      </c>
+      <c r="EJ5" t="n">
+        <v>5.680176053609607</v>
+      </c>
+      <c r="EK5" t="n">
+        <v>5.356295361534873</v>
+      </c>
+      <c r="EL5" t="n">
+        <v>5.921241423890771</v>
+      </c>
+      <c r="EM5" t="n">
+        <v>6.255269778354888</v>
+      </c>
+      <c r="EN5" t="n">
+        <v>5.846913715799132</v>
+      </c>
+      <c r="EO5" t="n">
+        <v>6.926839105970342</v>
+      </c>
+      <c r="EP5" t="n">
+        <v>7.054785609782909</v>
       </c>
     </row>
     <row r="6">
@@ -849,402 +2305,2306 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0     8.600000
-1     9.900000
-2     8.900000
-3     7.766667
-4     7.033333
-        ...   
-95    0.000000
-96    0.000000
-97    0.000000
-98    0.000000
-99    0.000000
+          <t>0     9.41
+1     9.02
+2     7.95
+3     7.48
+4     7.31
+      ... 
+95    0.00
+96    0.00
+97    0.00
+98    0.00
+99    0.00
 Name: Committee Seats (average), Length: 100, dtype: float64</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0      4.666667
-1      4.266667
-2      4.333333
-3      4.300000
-4      4.466667
-         ...   
-195    0.000000
-196    0.000000
-197    0.000000
-198    0.000000
-199    0.000000
+          <t>0      4.96
+1      4.66
+2      4.39
+3      4.69
+4      4.39
+       ... 
+195    0.00
+196    0.00
+197    0.00
+198    0.00
+199    0.00
 Name: Committee Seats (average), Length: 200, dtype: float64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0      3.000000
-1      2.800000
-2      2.966667
-3      2.933333
-4      2.666667
-         ...   
-295    0.000000
-296    0.000000
-297    0.000000
-298    0.000000
-299    0.000000
+          <t>0      3.52
+1      3.26
+2      2.93
+3      2.82
+4      3.16
+       ... 
+295    0.00
+296    0.00
+297    0.00
+298    0.00
+299    0.00
 Name: Committee Seats (average), Length: 300, dtype: float64</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0      2.866667
-1      2.333333
-2      1.900000
-3      2.366667
-4      2.233333
-         ...   
-395    0.000000
-396    0.000000
-397    0.000000
-398    0.000000
-399    0.000000
+          <t>0      2.38
+1      2.25
+2      2.13
+3      2.21
+4      2.13
+       ... 
+395    0.00
+396    0.00
+397    0.00
+398    0.00
+399    0.00
 Name: Committee Seats (average), Length: 400, dtype: float64</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0      2.166667
-1      1.700000
-2      2.100000
-3      1.633333
-4      1.533333
-         ...   
-495    0.000000
-496    0.000000
-497    0.000000
-498    0.000000
-499    0.000000
+          <t>0      1.99
+1      1.92
+2      2.09
+3      1.76
+4      1.86
+       ... 
+495    0.00
+496    0.00
+497    0.00
+498    0.00
+499    0.00
 Name: Committee Seats (average), Length: 500, dtype: float64</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0     16.433333
-1     15.400000
-2     15.866667
-3     15.466667
-4     14.233333
-        ...    
-95     0.000000
-96     0.000000
-97     0.000000
-98     0.000000
-99     0.000000
+          <t>0      1.61
+1      1.70
+2      1.44
+3      1.77
+4      1.61
+       ... 
+595    0.00
+596    0.00
+597    0.00
+598    0.00
+599    0.00
+Name: Committee Seats (average), Length: 600, dtype: float64</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0      1.52
+1      1.54
+2      1.34
+3      1.28
+4      1.30
+       ... 
+695    0.00
+696    0.00
+697    0.00
+698    0.00
+699    0.00
+Name: Committee Seats (average), Length: 700, dtype: float64</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0      1.09
+1      1.12
+2      1.17
+3      1.15
+4      1.15
+       ... 
+795    0.00
+796    0.00
+797    0.00
+798    0.00
+799    0.00
+Name: Committee Seats (average), Length: 800, dtype: float64</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0      1.02
+1      1.10
+2      0.94
+3      1.04
+4      1.04
+       ... 
+895    0.00
+896    0.00
+897    0.00
+898    0.00
+899    0.00
+Name: Committee Seats (average), Length: 900, dtype: float64</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0      1.14
+1      0.77
+2      0.93
+3      1.00
+4      0.77
+       ... 
+995    0.00
+996    0.00
+997    0.00
+998    0.00
+999    0.00
+Name: Committee Seats (average), Length: 1000, dtype: float64</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0       1.07
+1       0.64
+2       0.78
+3       0.91
+4       0.75
+        ... 
+1095    0.00
+1096    0.00
+1097    0.00
+1098    0.00
+1099    0.00
+Name: Committee Seats (average), Length: 1100, dtype: float64</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0       0.78
+1       0.79
+2       0.87
+3       0.74
+4       0.88
+        ... 
+1195    0.00
+1196    0.00
+1197    0.00
+1198    0.00
+1199    0.00
+Name: Committee Seats (average), Length: 1200, dtype: float64</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0     19.03
+1     17.31
+2     16.79
+3     15.79
+4     13.28
+      ...  
+95     0.00
+96     0.00
+97     0.00
+98     0.00
+99     0.00
 Name: Committee Seats (average), Length: 100, dtype: float64</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0      9.233333
-1      9.266667
-2      8.300000
-3      8.533333
-4      9.400000
-         ...   
-195    0.000000
-196    0.000000
-197    0.000000
-198    0.000000
-199    0.000000
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0      9.54
+1      9.03
+2      8.54
+3      8.18
+4      8.64
+       ... 
+195    0.00
+196    0.00
+197    0.00
+198    0.00
+199    0.00
 Name: Committee Seats (average), Length: 200, dtype: float64</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0      6.433333
-1      6.466667
-2      7.033333
-3      5.666667
-4      6.433333
-         ...   
-295    0.000000
-296    0.000000
-297    0.000000
-298    0.000000
-299    0.000000
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0      6.48
+1      6.26
+2      6.13
+3      5.62
+4      6.10
+       ... 
+295    0.00
+296    0.00
+297    0.00
+298    0.00
+299    0.00
 Name: Committee Seats (average), Length: 300, dtype: float64</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0      4.933333
-1      4.033333
-2      4.233333
-3      4.900000
-4      4.666667
-         ...   
-395    0.000000
-396    0.000000
-397    0.000000
-398    0.000000
-399    0.000000
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0      5.34
+1      4.49
+2      4.35
+3      4.67
+4      4.40
+       ... 
+395    0.00
+396    0.00
+397    0.00
+398    0.00
+399    0.00
 Name: Committee Seats (average), Length: 400, dtype: float64</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0      4.766667
-1      3.966667
-2      3.866667
-3      4.033333
-4      3.000000
-         ...   
-495    0.000000
-496    0.000000
-497    0.000000
-498    0.000000
-499    0.000000
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0      4.17
+1      3.86
+2      3.82
+3      3.71
+4      3.74
+       ... 
+495    0.00
+496    0.00
+497    0.00
+498    0.00
+499    0.00
 Name: Committee Seats (average), Length: 500, dtype: float64</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>0     27.900000
-1     25.933333
-2     23.633333
-3     22.333333
-4     21.700000
-        ...    
-95     0.000000
-96     0.000000
-97     0.000000
-98     0.000000
-99     0.000000
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0      3.52
+1      2.87
+2      2.77
+3      3.16
+4      3.23
+       ... 
+595    0.00
+596    0.00
+597    0.00
+598    0.00
+599    0.00
+Name: Committee Seats (average), Length: 600, dtype: float64</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>0      2.87
+1      2.83
+2      2.87
+3      2.77
+4      2.68
+       ... 
+695    0.00
+696    0.00
+697    0.00
+698    0.00
+699    0.00
+Name: Committee Seats (average), Length: 700, dtype: float64</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0      2.61
+1      2.34
+2      2.15
+3      2.17
+4      2.36
+       ... 
+795    0.00
+796    0.00
+797    0.00
+798    0.00
+799    0.00
+Name: Committee Seats (average), Length: 800, dtype: float64</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0      2.29
+1      1.81
+2      2.06
+3      2.12
+4      2.22
+       ... 
+895    0.00
+896    0.00
+897    0.00
+898    0.00
+899    0.00
+Name: Committee Seats (average), Length: 900, dtype: float64</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0      2.36
+1      1.90
+2      1.89
+3      1.88
+4      1.75
+       ... 
+995    0.00
+996    0.00
+997    0.00
+998    0.00
+999    0.00
+Name: Committee Seats (average), Length: 1000, dtype: float64</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0       1.84
+1       1.87
+2       1.56
+3       1.54
+4       1.84
+        ... 
+1095    0.00
+1096    0.00
+1097    0.00
+1098    0.00
+1099    0.00
+Name: Committee Seats (average), Length: 1100, dtype: float64</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0       1.84
+1       1.60
+2       1.69
+3       1.58
+4       1.42
+        ... 
+1195    0.00
+1196    0.00
+1197    0.00
+1198    0.00
+1199    0.00
+Name: Committee Seats (average), Length: 1200, dtype: float64</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>0     26.95
+1     25.79
+2     24.82
+3     22.72
+4     20.64
+      ...  
+95     0.00
+96     0.00
+97     0.00
+98     0.00
+99     0.00
 Name: Committee Seats (average), Length: 100, dtype: float64</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0      14.400000
-1      12.433333
-2      13.533333
-3      12.800000
-4      13.966667
-         ...    
-195     0.000000
-196     0.000000
-197     0.000000
-198     0.000000
-199     0.000000
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>0      13.59
+1      13.62
+2      12.99
+3      13.21
+4      13.43
+       ...  
+195     0.00
+196     0.00
+197     0.00
+198     0.00
+199     0.00
 Name: Committee Seats (average), Length: 200, dtype: float64</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0      9.833333
-1      8.533333
-2      8.366667
-3      9.566667
-4      8.566667
-         ...   
-295    0.000000
-296    0.000000
-297    0.000000
-298    0.000000
-299    0.000000
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>0      10.20
+1       9.39
+2       8.77
+3       8.74
+4       8.78
+       ...  
+295     0.00
+296     0.00
+297     0.00
+298     0.00
+299     0.00
 Name: Committee Seats (average), Length: 300, dtype: float64</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0      6.900000
-1      7.200000
-2      5.866667
-3      6.866667
-4      7.166667
-         ...   
-395    0.000000
-396    0.000000
-397    0.000000
-398    0.000000
-399    0.000000
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>0      7.28
+1      7.09
+2      7.07
+3      6.52
+4      6.67
+       ... 
+395    0.00
+396    0.00
+397    0.00
+398    0.00
+399    0.00
 Name: Committee Seats (average), Length: 400, dtype: float64</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0      6.033333
-1      5.866667
-2      5.333333
-3      4.533333
-4      5.500000
-         ...   
-495    0.000000
-496    0.000000
-497    0.000000
-498    0.000000
-499    0.000000
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>0      5.78
+1      5.39
+2      5.11
+3      5.39
+4      5.87
+       ... 
+495    0.00
+496    0.00
+497    0.00
+498    0.00
+499    0.00
 Name: Committee Seats (average), Length: 500, dtype: float64</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0     40.033333
-1     37.800000
-2     33.300000
-3     30.833333
-4     26.666667
-        ...    
-95     0.000000
-96     0.000000
-97     0.000000
-98     0.000000
-99     0.000000
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0      5.41
+1      4.56
+2      4.25
+3      4.75
+4      4.59
+       ... 
+595    0.00
+596    0.00
+597    0.00
+598    0.00
+599    0.00
+Name: Committee Seats (average), Length: 600, dtype: float64</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0      3.94
+1      3.82
+2      4.12
+3      4.08
+4      3.90
+       ... 
+695    0.00
+696    0.00
+697    0.00
+698    0.00
+699    0.00
+Name: Committee Seats (average), Length: 700, dtype: float64</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0      3.97
+1      3.58
+2      3.36
+3      3.59
+4      3.52
+       ... 
+795    0.00
+796    0.00
+797    0.00
+798    0.00
+799    0.00
+Name: Committee Seats (average), Length: 800, dtype: float64</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0      3.66
+1      3.28
+2      3.03
+3      3.17
+4      3.00
+       ... 
+895    0.00
+896    0.00
+897    0.00
+898    0.00
+899    0.00
+Name: Committee Seats (average), Length: 900, dtype: float64</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>0      2.87
+1      2.69
+2      2.73
+3      2.88
+4      2.95
+       ... 
+995    0.00
+996    0.00
+997    0.00
+998    0.00
+999    0.00
+Name: Committee Seats (average), Length: 1000, dtype: float64</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>0       2.90
+1       2.67
+2       2.57
+3       2.58
+4       2.37
+        ... 
+1095    0.00
+1096    0.00
+1097    0.00
+1098    0.00
+1099    0.00
+Name: Committee Seats (average), Length: 1100, dtype: float64</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>0       3.03
+1       2.47
+2       2.60
+3       2.08
+4       2.31
+        ... 
+1195    0.00
+1196    0.00
+1197    0.00
+1198    0.00
+1199    0.00
+Name: Committee Seats (average), Length: 1200, dtype: float64</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>0     34.41
+1     34.28
+2     31.26
+3     29.19
+4     26.05
+      ...  
+95     0.00
+96     0.00
+97     0.00
+98     0.00
+99     0.00
 Name: Committee Seats (average), Length: 100, dtype: float64</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0      19.433333
-1      17.933333
-2      19.000000
-3      16.400000
-4      17.966667
-         ...    
-195     0.000000
-196     0.000000
-197     0.000000
-198     0.000000
-199     0.000000
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>0      19.07
+1      17.92
+2      17.75
+3      17.02
+4      17.58
+       ...  
+195     0.00
+196     0.00
+197     0.00
+198     0.00
+199     0.00
 Name: Committee Seats (average), Length: 200, dtype: float64</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0      14.200000
-1      11.833333
-2      13.033333
-3      11.633333
-4      11.800000
-         ...    
-295     0.000000
-296     0.000000
-297     0.000000
-298     0.000000
-299     0.000000
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0      12.67
+1      12.66
+2      11.77
+3      12.03
+4      11.73
+       ...  
+295     0.00
+296     0.00
+297     0.00
+298     0.00
+299     0.00
 Name: Committee Seats (average), Length: 300, dtype: float64</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>0      11.300000
-1       8.266667
-2       9.266667
-3       8.900000
-4       9.533333
-         ...    
-395     0.000000
-396     0.000000
-397     0.000000
-398     0.000000
-399     0.000000
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0      9.68
+1      9.00
+2      9.64
+3      9.27
+4      9.20
+       ... 
+395    0.00
+396    0.00
+397    0.00
+398    0.00
+399    0.00
 Name: Committee Seats (average), Length: 400, dtype: float64</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0      7.833333
-1      7.966667
-2      7.233333
-3      6.900000
-4      6.600000
-         ...   
-495    0.000000
-496    0.000000
-497    0.000000
-498    0.000000
-499    0.000000
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>0      7.96
+1      7.23
+2      7.37
+3      7.75
+4      7.43
+       ... 
+495    0.00
+496    0.00
+497    0.00
+498    0.00
+499    0.00
 Name: Committee Seats (average), Length: 500, dtype: float64</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0     47.366667
-1     43.133333
-2     41.266667
-3     35.300000
-4     36.700000
-        ...    
-95     0.000000
-96     0.000000
-97     0.000000
-98     0.000000
-99     0.000000
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>0      6.29
+1      6.24
+2      6.10
+3      5.78
+4      5.90
+       ... 
+595    0.00
+596    0.00
+597    0.00
+598    0.00
+599    0.00
+Name: Committee Seats (average), Length: 600, dtype: float64</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>0      5.99
+1      5.21
+2      5.20
+3      5.28
+4      5.33
+       ... 
+695    0.00
+696    0.00
+697    0.00
+698    0.00
+699    0.00
+Name: Committee Seats (average), Length: 700, dtype: float64</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>0      5.18
+1      3.93
+2      5.10
+3      4.62
+4      4.54
+       ... 
+795    0.00
+796    0.00
+797    0.00
+798    0.00
+799    0.00
+Name: Committee Seats (average), Length: 800, dtype: float64</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>0      4.84
+1      4.10
+2      3.95
+3      4.24
+4      4.19
+       ... 
+895    0.00
+896    0.00
+897    0.00
+898    0.00
+899    0.00
+Name: Committee Seats (average), Length: 900, dtype: float64</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>0      4.43
+1      4.07
+2      3.58
+3      3.70
+4      3.76
+       ... 
+995    0.00
+996    0.00
+997    0.00
+998    0.00
+999    0.00
+Name: Committee Seats (average), Length: 1000, dtype: float64</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>0       4.11
+1       3.15
+2       3.45
+3       3.32
+4       3.66
+        ... 
+1095    0.00
+1096    0.00
+1097    0.00
+1098    0.00
+1099    0.00
+Name: Committee Seats (average), Length: 1100, dtype: float64</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>0       3.86
+1       3.09
+2       3.41
+3       3.05
+4       3.08
+        ... 
+1195    0.00
+1196    0.00
+1197    0.00
+1198    0.00
+1199    0.00
+Name: Committee Seats (average), Length: 1200, dtype: float64</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>0     46.40
+1     42.53
+2     40.75
+3     38.12
+4     35.04
+      ...  
+95     0.00
+96     0.00
+97     0.00
+98     0.00
+99     0.00
 Name: Committee Seats (average), Length: 100, dtype: float64</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0      24.500000
-1      23.533333
-2      21.133333
-3      21.933333
-4      22.266667
-         ...    
-195     0.000000
-196     0.000000
-197     0.000000
-198     0.000000
-199     0.000000
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>0      23.57
+1      21.88
+2      22.47
+3      22.64
+4      21.44
+       ...  
+195     0.00
+196     0.00
+197     0.00
+198     0.00
+199     0.00
 Name: Committee Seats (average), Length: 200, dtype: float64</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0      17.533333
-1      15.033333
-2      16.133333
-3      14.433333
-4      15.066667
-         ...    
-295     0.000000
-296     0.000000
-297     0.000000
-298     0.000000
-299     0.000000
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>0      16.13
+1      16.26
+2      15.72
+3      15.27
+4      15.49
+       ...  
+295     0.00
+296     0.00
+297     0.00
+298     0.00
+299     0.00
 Name: Committee Seats (average), Length: 300, dtype: float64</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0      12.066667
-1      11.800000
-2      11.533333
-3      10.033333
-4      11.100000
-         ...    
-395     0.000000
-396     0.000000
-397     0.000000
-398     0.000000
-399     0.000000
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>0      12.82
+1      11.44
+2      10.86
+3      11.10
+4      11.08
+       ...  
+395     0.00
+396     0.00
+397     0.00
+398     0.00
+399     0.00
 Name: Committee Seats (average), Length: 400, dtype: float64</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0       9.800000
-1      10.366667
-2       8.800000
-3       9.600000
-4       9.133333
-         ...    
-495     0.000000
-496     0.000000
-497     0.000000
-498     0.000000
-499     0.000000
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>0      9.69
+1      9.42
+2      9.38
+3      9.37
+4      9.22
+       ... 
+495    0.00
+496    0.00
+497    0.00
+498    0.00
+499    0.00
 Name: Committee Seats (average), Length: 500, dtype: float64</t>
+        </is>
+      </c>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>0      8.13
+1      7.73
+2      7.73
+3      7.45
+4      7.20
+       ... 
+595    0.00
+596    0.00
+597    0.00
+598    0.00
+599    0.00
+Name: Committee Seats (average), Length: 600, dtype: float64</t>
+        </is>
+      </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>0      7.80
+1      7.04
+2      6.68
+3      6.10
+4      6.71
+       ... 
+695    0.00
+696    0.00
+697    0.00
+698    0.00
+699    0.00
+Name: Committee Seats (average), Length: 700, dtype: float64</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>0      6.76
+1      5.79
+2      5.73
+3      5.77
+4      5.90
+       ... 
+795    0.00
+796    0.00
+797    0.00
+798    0.00
+799    0.00
+Name: Committee Seats (average), Length: 800, dtype: float64</t>
+        </is>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>0      5.93
+1      5.22
+2      5.08
+3      5.28
+4      5.08
+       ... 
+895    0.00
+896    0.00
+897    0.00
+898    0.00
+899    0.00
+Name: Committee Seats (average), Length: 900, dtype: float64</t>
+        </is>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>0      5.47
+1      4.57
+2      4.18
+3      4.78
+4      4.07
+       ... 
+995    0.00
+996    0.00
+997    0.00
+998    0.00
+999    0.00
+Name: Committee Seats (average), Length: 1000, dtype: float64</t>
+        </is>
+      </c>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>0       5.21
+1       3.97
+2       4.13
+3       4.21
+4       4.28
+        ... 
+1095    0.00
+1096    0.00
+1097    0.00
+1098    0.00
+1099    0.00
+Name: Committee Seats (average), Length: 1100, dtype: float64</t>
+        </is>
+      </c>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>0       4.54
+1       4.08
+2       3.88
+3       4.04
+4       3.83
+        ... 
+1195    0.00
+1196    0.00
+1197    0.00
+1198    0.00
+1199    0.00
+Name: Committee Seats (average), Length: 1200, dtype: float64</t>
+        </is>
+      </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>0     54.57
+1     52.13
+2     50.35
+3     44.84
+4     41.30
+      ...  
+95     0.00
+96     0.00
+97     0.00
+98     0.00
+99     0.00
+Name: Committee Seats (average), Length: 100, dtype: float64</t>
+        </is>
+      </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>0      28.53
+1      27.11
+2      26.18
+3      26.15
+4      25.04
+       ...  
+195     0.00
+196     0.00
+197     0.00
+198     0.00
+199     0.00
+Name: Committee Seats (average), Length: 200, dtype: float64</t>
+        </is>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>0      19.37
+1      18.01
+2      17.84
+3      18.24
+4      18.28
+       ...  
+295     0.00
+296     0.00
+297     0.00
+298     0.00
+299     0.00
+Name: Committee Seats (average), Length: 300, dtype: float64</t>
+        </is>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>0      15.25
+1      13.31
+2      12.97
+3      13.08
+4      13.27
+       ...  
+395     0.00
+396     0.00
+397     0.00
+398     0.00
+399     0.00
+Name: Committee Seats (average), Length: 400, dtype: float64</t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>0      12.04
+1      10.92
+2      10.67
+3      10.60
+4      10.88
+       ...  
+495     0.00
+496     0.00
+497     0.00
+498     0.00
+499     0.00
+Name: Committee Seats (average), Length: 500, dtype: float64</t>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>0      9.58
+1      8.99
+2      9.57
+3      8.92
+4      8.81
+       ... 
+595    0.00
+596    0.00
+597    0.00
+598    0.00
+599    0.00
+Name: Committee Seats (average), Length: 600, dtype: float64</t>
+        </is>
+      </c>
+      <c r="BQ6" t="inlineStr">
+        <is>
+          <t>0      8.61
+1      8.08
+2      7.93
+3      7.41
+4      7.74
+       ... 
+695    0.00
+696    0.00
+697    0.00
+698    0.00
+699    0.00
+Name: Committee Seats (average), Length: 700, dtype: float64</t>
+        </is>
+      </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>0      7.79
+1      6.70
+2      7.13
+3      6.61
+4      6.81
+       ... 
+795    0.00
+796    0.00
+797    0.00
+798    0.00
+799    0.00
+Name: Committee Seats (average), Length: 800, dtype: float64</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>0      6.91
+1      5.96
+2      6.40
+3      6.08
+4      6.22
+       ... 
+895    0.00
+896    0.00
+897    0.00
+898    0.00
+899    0.00
+Name: Committee Seats (average), Length: 900, dtype: float64</t>
+        </is>
+      </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>0      6.43
+1      5.62
+2      5.52
+3      5.64
+4      5.23
+       ... 
+995    0.00
+996    0.00
+997    0.00
+998    0.00
+999    0.00
+Name: Committee Seats (average), Length: 1000, dtype: float64</t>
+        </is>
+      </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>0       5.61
+1       4.96
+2       4.95
+3       4.27
+4       4.99
+        ... 
+1095    0.00
+1096    0.00
+1097    0.00
+1098    0.00
+1099    0.00
+Name: Committee Seats (average), Length: 1100, dtype: float64</t>
+        </is>
+      </c>
+      <c r="BV6" t="inlineStr">
+        <is>
+          <t>0       5.25
+1       5.01
+2       4.70
+3       4.47
+4       4.90
+        ... 
+1195    0.00
+1196    0.00
+1197    0.00
+1198    0.00
+1199    0.00
+Name: Committee Seats (average), Length: 1200, dtype: float64</t>
+        </is>
+      </c>
+      <c r="BW6" t="inlineStr">
+        <is>
+          <t>0     60.89
+1     60.60
+2     57.95
+3     52.62
+4     46.55
+      ...  
+95     0.00
+96     0.00
+97     0.00
+98     0.00
+99     0.00
+Name: Committee Seats (average), Length: 100, dtype: float64</t>
+        </is>
+      </c>
+      <c r="BX6" t="inlineStr">
+        <is>
+          <t>0      34.56
+1      33.23
+2      31.47
+3      31.40
+4      30.05
+       ...  
+195     0.00
+196     0.00
+197     0.00
+198     0.00
+199     0.00
+Name: Committee Seats (average), Length: 200, dtype: float64</t>
+        </is>
+      </c>
+      <c r="BY6" t="inlineStr">
+        <is>
+          <t>0      22.40
+1      21.11
+2      21.73
+3      20.64
+4      20.60
+       ...  
+295     0.00
+296     0.00
+297     0.00
+298     0.00
+299     0.00
+Name: Committee Seats (average), Length: 300, dtype: float64</t>
+        </is>
+      </c>
+      <c r="BZ6" t="inlineStr">
+        <is>
+          <t>0      17.36
+1      16.86
+2      15.44
+3      16.09
+4      15.70
+       ...  
+395     0.00
+396     0.00
+397     0.00
+398     0.00
+399     0.00
+Name: Committee Seats (average), Length: 400, dtype: float64</t>
+        </is>
+      </c>
+      <c r="CA6" t="inlineStr">
+        <is>
+          <t>0      14.60
+1      12.81
+2      12.00
+3      12.73
+4      12.36
+       ...  
+495     0.00
+496     0.00
+497     0.00
+498     0.00
+499     0.00
+Name: Committee Seats (average), Length: 500, dtype: float64</t>
+        </is>
+      </c>
+      <c r="CB6" t="inlineStr">
+        <is>
+          <t>0      12.09
+1      10.77
+2      10.56
+3      10.78
+4      10.84
+       ...  
+595     0.00
+596     0.00
+597     0.00
+598     0.00
+599     0.00
+Name: Committee Seats (average), Length: 600, dtype: float64</t>
+        </is>
+      </c>
+      <c r="CC6" t="inlineStr">
+        <is>
+          <t>0      10.28
+1       9.81
+2       8.88
+3       8.37
+4       9.22
+       ...  
+695     0.00
+696     0.00
+697     0.00
+698     0.00
+699     0.00
+Name: Committee Seats (average), Length: 700, dtype: float64</t>
+        </is>
+      </c>
+      <c r="CD6" t="inlineStr">
+        <is>
+          <t>0      8.70
+1      8.10
+2      8.45
+3      8.16
+4      7.96
+       ... 
+795    0.00
+796    0.00
+797    0.00
+798    0.00
+799    0.00
+Name: Committee Seats (average), Length: 800, dtype: float64</t>
+        </is>
+      </c>
+      <c r="CE6" t="inlineStr">
+        <is>
+          <t>0      8.65
+1      7.38
+2      7.55
+3      7.69
+4      7.23
+       ... 
+895    0.00
+896    0.00
+897    0.00
+898    0.00
+899    0.00
+Name: Committee Seats (average), Length: 900, dtype: float64</t>
+        </is>
+      </c>
+      <c r="CF6" t="inlineStr">
+        <is>
+          <t>0      7.64
+1      6.95
+2      6.41
+3      6.57
+4      6.48
+       ... 
+995    0.00
+996    0.00
+997    0.00
+998    0.00
+999    0.00
+Name: Committee Seats (average), Length: 1000, dtype: float64</t>
+        </is>
+      </c>
+      <c r="CG6" t="inlineStr">
+        <is>
+          <t>0       6.89
+1       5.77
+2       5.88
+3       6.23
+4       6.04
+        ... 
+1095    0.00
+1096    0.00
+1097    0.00
+1098    0.00
+1099    0.00
+Name: Committee Seats (average), Length: 1100, dtype: float64</t>
+        </is>
+      </c>
+      <c r="CH6" t="inlineStr">
+        <is>
+          <t>0       5.95
+1       5.77
+2       5.76
+3       5.13
+4       5.56
+        ... 
+1195    0.00
+1196    0.00
+1197    0.00
+1198    0.00
+1199    0.00
+Name: Committee Seats (average), Length: 1200, dtype: float64</t>
+        </is>
+      </c>
+      <c r="CI6" t="inlineStr">
+        <is>
+          <t>0     75.03
+1     69.69
+2     66.85
+3     61.32
+4     54.07
+      ...  
+95     0.00
+96     0.00
+97     0.00
+98     0.00
+99     0.00
+Name: Committee Seats (average), Length: 100, dtype: float64</t>
+        </is>
+      </c>
+      <c r="CJ6" t="inlineStr">
+        <is>
+          <t>0      38.05
+1      35.15
+2      34.18
+3      33.28
+4      33.35
+       ...  
+195     0.00
+196     0.00
+197     0.00
+198     0.00
+199     0.00
+Name: Committee Seats (average), Length: 200, dtype: float64</t>
+        </is>
+      </c>
+      <c r="CK6" t="inlineStr">
+        <is>
+          <t>0      26.39
+1      24.76
+2      23.07
+3      24.08
+4      24.40
+       ...  
+295     0.00
+296     0.00
+297     0.00
+298     0.00
+299     0.00
+Name: Committee Seats (average), Length: 300, dtype: float64</t>
+        </is>
+      </c>
+      <c r="CL6" t="inlineStr">
+        <is>
+          <t>0      19.80
+1      18.42
+2      17.84
+3      18.38
+4      17.57
+       ...  
+395     0.00
+396     0.00
+397     0.00
+398     0.00
+399     0.00
+Name: Committee Seats (average), Length: 400, dtype: float64</t>
+        </is>
+      </c>
+      <c r="CM6" t="inlineStr">
+        <is>
+          <t>0      15.58
+1      15.24
+2      14.88
+3      14.48
+4      13.73
+       ...  
+495     0.00
+496     0.00
+497     0.00
+498     0.00
+499     0.00
+Name: Committee Seats (average), Length: 500, dtype: float64</t>
+        </is>
+      </c>
+      <c r="CN6" t="inlineStr">
+        <is>
+          <t>0      13.78
+1      12.71
+2      12.95
+3      12.43
+4      11.73
+       ...  
+595     0.00
+596     0.00
+597     0.00
+598     0.00
+599     0.00
+Name: Committee Seats (average), Length: 600, dtype: float64</t>
+        </is>
+      </c>
+      <c r="CO6" t="inlineStr">
+        <is>
+          <t>0      12.10
+1      11.01
+2      10.67
+3      10.28
+4       9.94
+       ...  
+695     0.00
+696     0.00
+697     0.00
+698     0.00
+699     0.00
+Name: Committee Seats (average), Length: 700, dtype: float64</t>
+        </is>
+      </c>
+      <c r="CP6" t="inlineStr">
+        <is>
+          <t>0      10.81
+1       9.09
+2       8.87
+3       9.67
+4       8.76
+       ...  
+795     0.00
+796     0.00
+797     0.00
+798     0.00
+799     0.00
+Name: Committee Seats (average), Length: 800, dtype: float64</t>
+        </is>
+      </c>
+      <c r="CQ6" t="inlineStr">
+        <is>
+          <t>0      9.86
+1      8.03
+2      8.04
+3      8.44
+4      8.71
+       ... 
+895    0.00
+896    0.00
+897    0.00
+898    0.00
+899    0.00
+Name: Committee Seats (average), Length: 900, dtype: float64</t>
+        </is>
+      </c>
+      <c r="CR6" t="inlineStr">
+        <is>
+          <t>0      8.83
+1      7.93
+2      7.57
+3      7.44
+4      7.56
+       ... 
+995    0.00
+996    0.00
+997    0.00
+998    0.00
+999    0.00
+Name: Committee Seats (average), Length: 1000, dtype: float64</t>
+        </is>
+      </c>
+      <c r="CS6" t="inlineStr">
+        <is>
+          <t>0       8.10
+1       6.82
+2       6.48
+3       6.76
+4       7.14
+        ... 
+1095    0.00
+1096    0.00
+1097    0.00
+1098    0.00
+1099    0.00
+Name: Committee Seats (average), Length: 1100, dtype: float64</t>
+        </is>
+      </c>
+      <c r="CT6" t="inlineStr">
+        <is>
+          <t>0       7.80
+1       6.24
+2       6.37
+3       5.98
+4       6.32
+        ... 
+1195    0.00
+1196    0.00
+1197    0.00
+1198    0.00
+1199    0.00
+Name: Committee Seats (average), Length: 1200, dtype: float64</t>
+        </is>
+      </c>
+      <c r="CU6" t="inlineStr">
+        <is>
+          <t>0     80.93
+1     78.26
+2     70.80
+3     68.73
+4     60.60
+      ...  
+95     0.00
+96     0.00
+97     0.00
+98     0.00
+99     0.00
+Name: Committee Seats (average), Length: 100, dtype: float64</t>
+        </is>
+      </c>
+      <c r="CV6" t="inlineStr">
+        <is>
+          <t>0      43.44
+1      40.58
+2      40.57
+3      39.48
+4      38.18
+       ...  
+195     0.00
+196     0.00
+197     0.00
+198     0.00
+199     0.00
+Name: Committee Seats (average), Length: 200, dtype: float64</t>
+        </is>
+      </c>
+      <c r="CW6" t="inlineStr">
+        <is>
+          <t>0      28.73
+1      26.55
+2      27.39
+3      26.89
+4      26.65
+       ...  
+295     0.00
+296     0.00
+297     0.00
+298     0.00
+299     0.00
+Name: Committee Seats (average), Length: 300, dtype: float64</t>
+        </is>
+      </c>
+      <c r="CX6" t="inlineStr">
+        <is>
+          <t>0      22.48
+1      20.65
+2      20.59
+3      20.00
+4      19.65
+       ...  
+395     0.00
+396     0.00
+397     0.00
+398     0.00
+399     0.00
+Name: Committee Seats (average), Length: 400, dtype: float64</t>
+        </is>
+      </c>
+      <c r="CY6" t="inlineStr">
+        <is>
+          <t>0      18.08
+1      16.43
+2      16.21
+3      16.54
+4      16.29
+       ...  
+495     0.00
+496     0.00
+497     0.00
+498     0.00
+499     0.00
+Name: Committee Seats (average), Length: 500, dtype: float64</t>
+        </is>
+      </c>
+      <c r="CZ6" t="inlineStr">
+        <is>
+          <t>0      16.31
+1      15.21
+2      13.63
+3      13.37
+4      14.23
+       ...  
+595     0.00
+596     0.00
+597     0.00
+598     0.00
+599     0.00
+Name: Committee Seats (average), Length: 600, dtype: float64</t>
+        </is>
+      </c>
+      <c r="DA6" t="inlineStr">
+        <is>
+          <t>0      14.14
+1      12.34
+2      11.54
+3      11.52
+4      12.23
+       ...  
+695     0.00
+696     0.00
+697     0.00
+698     0.00
+699     0.00
+Name: Committee Seats (average), Length: 700, dtype: float64</t>
+        </is>
+      </c>
+      <c r="DB6" t="inlineStr">
+        <is>
+          <t>0      11.95
+1      10.12
+2      10.12
+3      10.69
+4      10.29
+       ...  
+795     0.00
+796     0.00
+797     0.00
+798     0.00
+799     0.00
+Name: Committee Seats (average), Length: 800, dtype: float64</t>
+        </is>
+      </c>
+      <c r="DC6" t="inlineStr">
+        <is>
+          <t>0      11.05
+1       9.56
+2       9.72
+3       8.87
+4       8.99
+       ...  
+895     0.00
+896     0.00
+897     0.00
+898     0.00
+899     0.00
+Name: Committee Seats (average), Length: 900, dtype: float64</t>
+        </is>
+      </c>
+      <c r="DD6" t="inlineStr">
+        <is>
+          <t>0      9.97
+1      8.20
+2      8.59
+3      8.68
+4      7.99
+       ... 
+995    0.00
+996    0.00
+997    0.00
+998    0.00
+999    0.00
+Name: Committee Seats (average), Length: 1000, dtype: float64</t>
+        </is>
+      </c>
+      <c r="DE6" t="inlineStr">
+        <is>
+          <t>0       8.69
+1       8.22
+2       7.49
+3       7.86
+4       7.14
+        ... 
+1095    0.00
+1096    0.00
+1097    0.00
+1098    0.00
+1099    0.00
+Name: Committee Seats (average), Length: 1100, dtype: float64</t>
+        </is>
+      </c>
+      <c r="DF6" t="inlineStr">
+        <is>
+          <t>0       8.46
+1       7.06
+2       7.51
+3       7.56
+4       6.61
+        ... 
+1195    0.00
+1196    0.00
+1197    0.00
+1198    0.00
+1199    0.00
+Name: Committee Seats (average), Length: 1200, dtype: float64</t>
+        </is>
+      </c>
+      <c r="DG6" t="inlineStr">
+        <is>
+          <t>0     89.96
+1     85.52
+2     80.28
+3     75.74
+4     70.33
+      ...  
+95     0.00
+96     0.00
+97     0.00
+98     0.00
+99     0.00
+Name: Committee Seats (average), Length: 100, dtype: float64</t>
+        </is>
+      </c>
+      <c r="DH6" t="inlineStr">
+        <is>
+          <t>0      48.30
+1      45.12
+2      44.87
+3      43.71
+4      42.52
+       ...  
+195     0.00
+196     0.00
+197     0.00
+198     0.00
+199     0.00
+Name: Committee Seats (average), Length: 200, dtype: float64</t>
+        </is>
+      </c>
+      <c r="DI6" t="inlineStr">
+        <is>
+          <t>0      31.57
+1      30.43
+2      30.30
+3      29.85
+4      29.08
+       ...  
+295     0.00
+296     0.00
+297     0.00
+298     0.00
+299     0.00
+Name: Committee Seats (average), Length: 300, dtype: float64</t>
+        </is>
+      </c>
+      <c r="DJ6" t="inlineStr">
+        <is>
+          <t>0      25.23
+1      23.11
+2      22.20
+3      22.92
+4      21.79
+       ...  
+395     0.00
+396     0.00
+397     0.00
+398     0.00
+399     0.00
+Name: Committee Seats (average), Length: 400, dtype: float64</t>
+        </is>
+      </c>
+      <c r="DK6" t="inlineStr">
+        <is>
+          <t>0      20.49
+1      18.18
+2      18.19
+3      18.12
+4      18.51
+       ...  
+495     0.00
+496     0.00
+497     0.00
+498     0.00
+499     0.00
+Name: Committee Seats (average), Length: 500, dtype: float64</t>
+        </is>
+      </c>
+      <c r="DL6" t="inlineStr">
+        <is>
+          <t>0      18.02
+1      15.57
+2      15.32
+3      14.94
+4      14.61
+       ...  
+595     0.00
+596     0.00
+597     0.00
+598     0.00
+599     0.00
+Name: Committee Seats (average), Length: 600, dtype: float64</t>
+        </is>
+      </c>
+      <c r="DM6" t="inlineStr">
+        <is>
+          <t>0      15.95
+1      13.24
+2      12.86
+3      13.46
+4      13.33
+       ...  
+695     0.00
+696     0.00
+697     0.00
+698     0.00
+699     0.00
+Name: Committee Seats (average), Length: 700, dtype: float64</t>
+        </is>
+      </c>
+      <c r="DN6" t="inlineStr">
+        <is>
+          <t>0      13.07
+1      11.60
+2      11.94
+3      10.99
+4      11.06
+       ...  
+795     0.00
+796     0.00
+797     0.00
+798     0.00
+799     0.00
+Name: Committee Seats (average), Length: 800, dtype: float64</t>
+        </is>
+      </c>
+      <c r="DO6" t="inlineStr">
+        <is>
+          <t>0      11.69
+1      10.88
+2      10.24
+3       9.69
+4       9.62
+       ...  
+895     0.00
+896     0.00
+897     0.00
+898     0.00
+899     0.00
+Name: Committee Seats (average), Length: 900, dtype: float64</t>
+        </is>
+      </c>
+      <c r="DP6" t="inlineStr">
+        <is>
+          <t>0      11.21
+1       9.95
+2       9.40
+3       9.49
+4       8.88
+       ...  
+995     0.00
+996     0.00
+997     0.00
+998     0.00
+999     0.00
+Name: Committee Seats (average), Length: 1000, dtype: float64</t>
+        </is>
+      </c>
+      <c r="DQ6" t="inlineStr">
+        <is>
+          <t>0       9.88
+1       8.56
+2       8.63
+3       8.52
+4       7.74
+        ... 
+1095    0.00
+1096    0.00
+1097    0.00
+1098    0.00
+1099    0.00
+Name: Committee Seats (average), Length: 1100, dtype: float64</t>
+        </is>
+      </c>
+      <c r="DR6" t="inlineStr">
+        <is>
+          <t>0       9.28
+1       7.69
+2       7.38
+3       7.49
+4       7.31
+        ... 
+1195    0.00
+1196    0.00
+1197    0.00
+1198    0.00
+1199    0.00
+Name: Committee Seats (average), Length: 1200, dtype: float64</t>
+        </is>
+      </c>
+      <c r="DS6" t="inlineStr">
+        <is>
+          <t>0     101.16
+1      95.68
+2      89.09
+3      81.44
+4      75.00
+       ...  
+95      0.00
+96      0.00
+97      0.00
+98      0.00
+99      0.00
+Name: Committee Seats (average), Length: 100, dtype: float64</t>
+        </is>
+      </c>
+      <c r="DT6" t="inlineStr">
+        <is>
+          <t>0      51.80
+1      49.90
+2      48.34
+3      46.76
+4      45.97
+       ...  
+195     0.00
+196     0.00
+197     0.00
+198     0.00
+199     0.00
+Name: Committee Seats (average), Length: 200, dtype: float64</t>
+        </is>
+      </c>
+      <c r="DU6" t="inlineStr">
+        <is>
+          <t>0      34.55
+1      33.89
+2      33.47
+3      32.39
+4      32.33
+       ...  
+295     0.00
+296     0.00
+297     0.00
+298     0.00
+299     0.00
+Name: Committee Seats (average), Length: 300, dtype: float64</t>
+        </is>
+      </c>
+      <c r="DV6" t="inlineStr">
+        <is>
+          <t>0      26.23
+1      24.77
+2      24.54
+3      24.88
+4      24.42
+       ...  
+395     0.00
+396     0.00
+397     0.00
+398     0.00
+399     0.00
+Name: Committee Seats (average), Length: 400, dtype: float64</t>
+        </is>
+      </c>
+      <c r="DW6" t="inlineStr">
+        <is>
+          <t>0      21.72
+1      20.82
+2      20.85
+3      20.58
+4      20.68
+       ...  
+495     0.00
+496     0.00
+497     0.00
+498     0.00
+499     0.00
+Name: Committee Seats (average), Length: 500, dtype: float64</t>
+        </is>
+      </c>
+      <c r="DX6" t="inlineStr">
+        <is>
+          <t>0      19.60
+1      16.84
+2      17.41
+3      16.91
+4      16.26
+       ...  
+595     0.00
+596     0.00
+597     0.00
+598     0.00
+599     0.00
+Name: Committee Seats (average), Length: 600, dtype: float64</t>
+        </is>
+      </c>
+      <c r="DY6" t="inlineStr">
+        <is>
+          <t>0      16.43
+1      13.84
+2      14.54
+3      14.13
+4      14.92
+       ...  
+695     0.00
+696     0.00
+697     0.00
+698     0.00
+699     0.00
+Name: Committee Seats (average), Length: 700, dtype: float64</t>
+        </is>
+      </c>
+      <c r="DZ6" t="inlineStr">
+        <is>
+          <t>0      14.50
+1      12.26
+2      12.44
+3      12.98
+4      12.34
+       ...  
+795     0.00
+796     0.00
+797     0.00
+798     0.00
+799     0.00
+Name: Committee Seats (average), Length: 800, dtype: float64</t>
+        </is>
+      </c>
+      <c r="EA6" t="inlineStr">
+        <is>
+          <t>0      12.67
+1      11.60
+2      11.37
+3      11.32
+4      11.69
+       ...  
+895     0.00
+896     0.00
+897     0.00
+898     0.00
+899     0.00
+Name: Committee Seats (average), Length: 900, dtype: float64</t>
+        </is>
+      </c>
+      <c r="EB6" t="inlineStr">
+        <is>
+          <t>0      12.05
+1      10.07
+2      10.88
+3      10.32
+4      10.23
+       ...  
+995     0.00
+996     0.00
+997     0.00
+998     0.00
+999     0.00
+Name: Committee Seats (average), Length: 1000, dtype: float64</t>
+        </is>
+      </c>
+      <c r="EC6" t="inlineStr">
+        <is>
+          <t>0       11.12
+1        9.78
+2        8.98
+3        9.20
+4        9.29
+        ...  
+1095     0.00
+1096     0.00
+1097     0.00
+1098     0.00
+1099     0.00
+Name: Committee Seats (average), Length: 1100, dtype: float64</t>
+        </is>
+      </c>
+      <c r="ED6" t="inlineStr">
+        <is>
+          <t>0       10.56
+1        8.53
+2        8.87
+3        8.13
+4        7.96
+        ...  
+1195     0.00
+1196     0.00
+1197     0.00
+1198     0.00
+1199     0.00
+Name: Committee Seats (average), Length: 1200, dtype: float64</t>
+        </is>
+      </c>
+      <c r="EE6" t="inlineStr">
+        <is>
+          <t>0     111.76
+1     100.93
+2      95.46
+3      90.65
+4      83.49
+       ...  
+95      0.00
+96      0.00
+97      0.00
+98      0.00
+99      0.00
+Name: Committee Seats (average), Length: 100, dtype: float64</t>
+        </is>
+      </c>
+      <c r="EF6" t="inlineStr">
+        <is>
+          <t>0      56.82
+1      53.14
+2      53.54
+3      53.42
+4      50.93
+       ...  
+195     0.00
+196     0.00
+197     0.00
+198     0.00
+199     0.00
+Name: Committee Seats (average), Length: 200, dtype: float64</t>
+        </is>
+      </c>
+      <c r="EG6" t="inlineStr">
+        <is>
+          <t>0      40.01
+1      37.14
+2      35.08
+3      35.53
+4      34.23
+       ...  
+295     0.00
+296     0.00
+297     0.00
+298     0.00
+299     0.00
+Name: Committee Seats (average), Length: 300, dtype: float64</t>
+        </is>
+      </c>
+      <c r="EH6" t="inlineStr">
+        <is>
+          <t>0      30.26
+1      28.63
+2      27.42
+3      26.65
+4      27.62
+       ...  
+395     0.00
+396     0.00
+397     0.00
+398     0.00
+399     0.00
+Name: Committee Seats (average), Length: 400, dtype: float64</t>
+        </is>
+      </c>
+      <c r="EI6" t="inlineStr">
+        <is>
+          <t>0      24.62
+1      21.44
+2      22.21
+3      21.53
+4      21.53
+       ...  
+495     0.00
+496     0.00
+497     0.00
+498     0.00
+499     0.00
+Name: Committee Seats (average), Length: 500, dtype: float64</t>
+        </is>
+      </c>
+      <c r="EJ6" t="inlineStr">
+        <is>
+          <t>0      20.25
+1      19.13
+2      18.96
+3      17.31
+4      18.34
+       ...  
+595     0.00
+596     0.00
+597     0.00
+598     0.00
+599     0.00
+Name: Committee Seats (average), Length: 600, dtype: float64</t>
+        </is>
+      </c>
+      <c r="EK6" t="inlineStr">
+        <is>
+          <t>0      18.26
+1      16.15
+2      15.52
+3      15.74
+4      15.70
+       ...  
+695     0.00
+696     0.00
+697     0.00
+698     0.00
+699     0.00
+Name: Committee Seats (average), Length: 700, dtype: float64</t>
+        </is>
+      </c>
+      <c r="EL6" t="inlineStr">
+        <is>
+          <t>0      15.72
+1      14.02
+2      13.68
+3      14.85
+4      13.72
+       ...  
+795     0.00
+796     0.00
+797     0.00
+798     0.00
+799     0.00
+Name: Committee Seats (average), Length: 800, dtype: float64</t>
+        </is>
+      </c>
+      <c r="EM6" t="inlineStr">
+        <is>
+          <t>0      13.70
+1      12.88
+2      12.31
+3      12.59
+4      11.91
+       ...  
+895     0.00
+896     0.00
+897     0.00
+898     0.00
+899     0.00
+Name: Committee Seats (average), Length: 900, dtype: float64</t>
+        </is>
+      </c>
+      <c r="EN6" t="inlineStr">
+        <is>
+          <t>0      13.71
+1      11.20
+2      11.49
+3      11.44
+4      10.56
+       ...  
+995     0.00
+996     0.00
+997     0.00
+998     0.00
+999     0.00
+Name: Committee Seats (average), Length: 1000, dtype: float64</t>
+        </is>
+      </c>
+      <c r="EO6" t="inlineStr">
+        <is>
+          <t>0       11.90
+1       10.62
+2        9.77
+3        9.93
+4        9.99
+        ...  
+1095     0.00
+1096     0.00
+1097     0.00
+1098     0.00
+1099     0.00
+Name: Committee Seats (average), Length: 1100, dtype: float64</t>
+        </is>
+      </c>
+      <c r="EP6" t="inlineStr">
+        <is>
+          <t>0       10.77
+1        9.28
+2        9.51
+3        9.19
+4        8.88
+        ...  
+1195     0.00
+1196     0.00
+1197     0.00
+1198     0.00
+1199     0.00
+Name: Committee Seats (average), Length: 1200, dtype: float64</t>
         </is>
       </c>
     </row>
@@ -1260,79 +4620,436 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25.46666666666667</v>
+        <v>25.91</v>
       </c>
       <c r="D7" t="n">
-        <v>40.6</v>
+        <v>40.26</v>
       </c>
       <c r="E7" t="n">
-        <v>50.5</v>
+        <v>50.18</v>
       </c>
       <c r="F7" t="n">
-        <v>57.2</v>
+        <v>57.87</v>
       </c>
       <c r="G7" t="n">
-        <v>63.73333333333333</v>
+        <v>62.37</v>
       </c>
       <c r="H7" t="n">
-        <v>31.36666666666667</v>
+        <v>67.58</v>
       </c>
       <c r="I7" t="n">
-        <v>50.9</v>
+        <v>70.66</v>
       </c>
       <c r="J7" t="n">
-        <v>66.96666666666667</v>
+        <v>73.86</v>
       </c>
       <c r="K7" t="n">
-        <v>79.13333333333334</v>
+        <v>75.84</v>
       </c>
       <c r="L7" t="n">
-        <v>91.13333333333334</v>
+        <v>77.15000000000001</v>
       </c>
       <c r="M7" t="n">
-        <v>33.2</v>
+        <v>79.56999999999999</v>
       </c>
       <c r="N7" t="n">
-        <v>57.03333333333333</v>
+        <v>81.04000000000001</v>
       </c>
       <c r="O7" t="n">
-        <v>75.5</v>
+        <v>31.33</v>
       </c>
       <c r="P7" t="n">
-        <v>90.66666666666667</v>
+        <v>50.87</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.1</v>
+        <v>65.69</v>
       </c>
       <c r="R7" t="n">
-        <v>37.2</v>
+        <v>80.33</v>
       </c>
       <c r="S7" t="n">
-        <v>61.56666666666667</v>
+        <v>89.59</v>
       </c>
       <c r="T7" t="n">
-        <v>81.16666666666667</v>
+        <v>100.55</v>
       </c>
       <c r="U7" t="n">
-        <v>99.76666666666667</v>
+        <v>106.71</v>
       </c>
       <c r="V7" t="n">
-        <v>118.4666666666667</v>
+        <v>115.05</v>
       </c>
       <c r="W7" t="n">
-        <v>37.8</v>
+        <v>121.1</v>
       </c>
       <c r="X7" t="n">
-        <v>62.76666666666667</v>
+        <v>125.98</v>
       </c>
       <c r="Y7" t="n">
-        <v>86.46666666666667</v>
+        <v>129.76</v>
       </c>
       <c r="Z7" t="n">
-        <v>108.3666666666667</v>
+        <v>135.35</v>
       </c>
       <c r="AA7" t="n">
-        <v>125.9666666666667</v>
+        <v>33.93</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>56.38</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>75.87</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>91.48999999999999</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>106.13</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>119.92</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>129.79</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>139.97</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>147.99</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>157.72</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>163.61</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>170.79</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>37.07</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>60.68</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>81.2</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>100.18</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>117.65</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>132.17</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>145.59</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>159.27</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>169.04</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>180.31</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>190</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>199.51</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>37.26</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>63.85</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>85.89</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>106.3</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>125.55</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>141.7</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>156.76</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>173.08</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>184.31</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>198.01</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>211.25</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>221.66</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>39.68</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>66.33</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>89.39</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>113.13</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>132.37</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>151.19</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>168.19</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>182.7</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>196.52</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>211.05</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>226.25</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>237.43</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>40.63</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>67.78</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>93.76000000000001</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>115.75</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>155.38</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>175.83</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>191.99</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>208.59</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>224.56</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>238.12</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>251.06</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>41.01</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>72.05</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>96.56999999999999</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>119.53</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>143.97</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>162.08</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>182.7</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>200.06</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>218.29</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>232.72</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>247.37</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>263.46</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>72.67</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>125.07</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>146.77</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>166.9</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>187.78</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>205.79</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>225.05</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>241.13</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>258.44</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>273.74</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>42.75</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>73.23999999999999</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>101.75</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>127.5</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>149.34</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>172.94</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>192.85</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>213.99</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>232.13</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>249.87</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>267.48</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>282.6</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>102.94</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>129.64</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>152.84</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>177.27</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>198.76</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>217.75</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>238.19</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>256.33</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>276.11</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>292.6</v>
+      </c>
+      <c r="EE7" t="n">
+        <v>43.47</v>
+      </c>
+      <c r="EF7" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="EG7" t="n">
+        <v>106.02</v>
+      </c>
+      <c r="EH7" t="n">
+        <v>131.7</v>
+      </c>
+      <c r="EI7" t="n">
+        <v>156.54</v>
+      </c>
+      <c r="EJ7" t="n">
+        <v>179.34</v>
+      </c>
+      <c r="EK7" t="n">
+        <v>201.49</v>
+      </c>
+      <c r="EL7" t="n">
+        <v>223.17</v>
+      </c>
+      <c r="EM7" t="n">
+        <v>244.46</v>
+      </c>
+      <c r="EN7" t="n">
+        <v>261.56</v>
+      </c>
+      <c r="EO7" t="n">
+        <v>279.83</v>
+      </c>
+      <c r="EP7" t="n">
+        <v>298.7</v>
       </c>
     </row>
     <row r="8">
@@ -1343,90 +5060,454 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.692376067507823</v>
+        <v>2.025314790347417</v>
       </c>
       <c r="D8" t="n">
-        <v>2.33238075793812</v>
+        <v>2.551940438176408</v>
       </c>
       <c r="E8" t="n">
-        <v>2.459674775249769</v>
+        <v>3.191801998871484</v>
       </c>
       <c r="F8" t="n">
-        <v>3.673327283721576</v>
+        <v>3.306523854442911</v>
       </c>
       <c r="G8" t="n">
-        <v>3.60493488922554</v>
+        <v>3.110160767548841</v>
       </c>
       <c r="H8" t="n">
-        <v>2.316366887078892</v>
+        <v>3.672002178648591</v>
       </c>
       <c r="I8" t="n">
-        <v>2.785079292707241</v>
+        <v>3.663932313785286</v>
       </c>
       <c r="J8" t="n">
-        <v>3.250470051478026</v>
+        <v>3.487176508294354</v>
       </c>
       <c r="K8" t="n">
-        <v>4.514667454223203</v>
+        <v>3.801894264705425</v>
       </c>
       <c r="L8" t="n">
-        <v>4.709800656314683</v>
+        <v>3.235351603767356</v>
       </c>
       <c r="M8" t="n">
-        <v>2.181742422927143</v>
+        <v>3.256547251307741</v>
       </c>
       <c r="N8" t="n">
-        <v>3.250470051478026</v>
+        <v>3.43196736581221</v>
       </c>
       <c r="O8" t="n">
-        <v>3.442382895611701</v>
+        <v>2.284972647538696</v>
       </c>
       <c r="P8" t="n">
-        <v>3.486481830664768</v>
+        <v>2.663287442241261</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.127377497317708</v>
+        <v>3.62958675333708</v>
       </c>
       <c r="R8" t="n">
-        <v>1.833030277982336</v>
+        <v>3.507292402979826</v>
       </c>
       <c r="S8" t="n">
-        <v>3.58406969178273</v>
+        <v>3.904087601476176</v>
       </c>
       <c r="T8" t="n">
-        <v>3.387066905483596</v>
+        <v>3.763973963778177</v>
       </c>
       <c r="U8" t="n">
-        <v>4.038839217178894</v>
+        <v>4.669678789809852</v>
       </c>
       <c r="V8" t="n">
-        <v>4.688520259337931</v>
+        <v>5.0386009963084</v>
       </c>
       <c r="W8" t="n">
-        <v>2.181742422927143</v>
+        <v>5.21632054229799</v>
       </c>
       <c r="X8" t="n">
-        <v>3.018645759644914</v>
+        <v>5.567728441653741</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.629744389775469</v>
+        <v>4.986221013954355</v>
       </c>
       <c r="Z8" t="n">
-        <v>4.370227555733099</v>
+        <v>5.479735395071554</v>
       </c>
       <c r="AA8" t="n">
-        <v>5.552677032046994</v>
+        <v>2.255016629650433</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>3.071742176680849</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>3.833157967003186</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>3.81443311646698</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5.137421532247475</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>4.573138965743333</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>4.901622180462301</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>6.538279590228609</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>5.264019376864034</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>6.09110827354103</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>5.112523838575229</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>5.738109444756173</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>2.108340579697692</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.221428254672142</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>3.94715087119811</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>3.816752546340934</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>4.292726406376255</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>4.953897455539426</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>4.870513319969467</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>5.011696319610756</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>5.656712826368332</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>6.231685165346529</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>6.180614856144977</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>6.119632341897672</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>2.2388389848312</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>2.772634126602354</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>3.885601626518087</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>3.894868418830089</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>4.434805519974918</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>4.633573135281238</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>4.749989473672548</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>5.735294238310708</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>6.325654116374053</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>6.08686290300677</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>6.405271266699015</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>6.702566672551643</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>2.158147353634594</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>3.059591475998062</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>3.649369808610796</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>4.158497324755663</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>4.661877304262735</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>5.53298292063151</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>5.117997655333578</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>4.877499359302879</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>6.208832418418136</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>6.375539192884002</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>6.928744475011328</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>5.985407254314446</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>2.17096752624262</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>2.968433930543175</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>3.473096601017599</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>4.439313009914935</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>4.565084884205332</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>4.863702293520853</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>5.475499977171035</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>5.616929766340327</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>5.772512451264181</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>6.82542306381077</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>5.111320768646788</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>7.035367794223697</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>2.586484100086448</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>3.421622422185125</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>3.65583095889293</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>4.434985907531162</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>4.893781768734687</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>4.934936676392109</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>5.893216439263028</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>5.277916255493261</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>5.872469667865471</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>7.066937101743584</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>6.75226628621828</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>6.287161521704369</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>2.280438554313621</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>3.039917762045546</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>3.482814953453601</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>4.64166995810775</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>4.85356569956563</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>4.960846701924985</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>6.250727957606219</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>5.632574899635157</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>6.198991853519408</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>6.305005947657781</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>7.004741251466752</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>6.918988365360936</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>2.099404677521702</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>2.976978333814339</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>3.216753021293366</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>4.241462012089699</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>4.91369514723899</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>5.199653834631686</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>5.694514904713131</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>6.850540124690898</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>5.066862934795059</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>5.675658552097721</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>6.847598119048754</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>6.913754406977441</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>1.86815416922694</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>3.047950130825634</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>3.52936254867646</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>4.053442980973089</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>4.717456942039853</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>5.086953901894532</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>5.870468465122694</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>5.653980898446687</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>6.354045955137561</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>5.90432892037698</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>7.744540012163408</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>6.73349834781297</v>
+      </c>
+      <c r="EE8" t="n">
+        <v>2.090239220759193</v>
+      </c>
+      <c r="EF8" t="n">
+        <v>3.036445290137796</v>
+      </c>
+      <c r="EG8" t="n">
+        <v>4.140000000000001</v>
+      </c>
+      <c r="EH8" t="n">
+        <v>4.670117771534247</v>
+      </c>
+      <c r="EI8" t="n">
+        <v>5.485289418070846</v>
+      </c>
+      <c r="EJ8" t="n">
+        <v>5.680176053609607</v>
+      </c>
+      <c r="EK8" t="n">
+        <v>5.356295361534873</v>
+      </c>
+      <c r="EL8" t="n">
+        <v>5.921241423890771</v>
+      </c>
+      <c r="EM8" t="n">
+        <v>6.255269778354888</v>
+      </c>
+      <c r="EN8" t="n">
+        <v>5.846913715799132</v>
+      </c>
+      <c r="EO8" t="n">
+        <v>6.926839105970342</v>
+      </c>
+      <c r="EP8" t="n">
+        <v>7.054785609782909</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="R1:V1"/>
+  <mergeCells count="14">
+    <mergeCell ref="DS1:ED1"/>
+    <mergeCell ref="DG1:DR1"/>
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="AA1:AL1"/>
+    <mergeCell ref="O1:Z1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="CI1:CT1"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="W1:AA1"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="BK1:BV1"/>
+    <mergeCell ref="BW1:CH1"/>
+    <mergeCell ref="AY1:BJ1"/>
+    <mergeCell ref="CU1:DF1"/>
+    <mergeCell ref="EE1:EP1"/>
+    <mergeCell ref="AM1:AX1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
